--- a/AAII_Financials/Quarterly/MMMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMMM_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>MMMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,82 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>5100</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -762,19 +769,25 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
+      <c r="D9" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -788,31 +801,37 @@
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
+      <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -826,20 +845,26 @@
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
         <v>-100</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -939,28 +978,28 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -968,8 +1007,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>500</v>
+      </c>
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-400</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,23 +1176,25 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>-1600</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1149,8 +1216,14 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1160,18 +1233,18 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1187,23 +1260,29 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>400</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
@@ -1225,46 +1304,58 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-200</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1392,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-200</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-200</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,23 +1700,29 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>1600</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>900</v>
+      </c>
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1605,46 +1744,58 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-200</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-200</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,8 +1965,10 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1803,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -1821,19 +1994,25 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,8 +2049,14 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1908,8 +2093,14 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,46 +2137,58 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1993,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -2011,19 +2214,25 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,8 +2269,14 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2080,26 +2295,32 @@
       <c r="H48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I48" s="3">
-        <v>500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>500</v>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>500</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3">
+        <v>500</v>
+      </c>
+      <c r="M48" s="3">
+        <v>500</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2357,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,37 +2445,43 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2250,8 +2489,14 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,8 +2533,14 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2297,37 +2548,43 @@
         <v>0</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>100</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>600</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,8 +2617,10 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2387,31 +2648,37 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>800</v>
+      </c>
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>100</v>
-      </c>
-      <c r="G58" s="3">
-        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
@@ -2425,93 +2692,111 @@
       <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
+        <v>100</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F59" s="3">
         <v>2200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F60" s="3">
         <v>2700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>100</v>
-      </c>
-      <c r="J60" s="3">
-        <v>100</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
+      <c r="L60" s="3">
+        <v>100</v>
+      </c>
+      <c r="M60" s="3">
+        <v>100</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,8 +2833,14 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2568,26 +2859,32 @@
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="3">
-        <v>200</v>
-      </c>
-      <c r="J62" s="3">
-        <v>200</v>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>200</v>
+      </c>
+      <c r="M62" s="3">
+        <v>200</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F66" s="3">
         <v>2700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>200</v>
-      </c>
-      <c r="I66" s="3">
-        <v>300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>300</v>
       </c>
       <c r="K66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
+      <c r="L66" s="3">
+        <v>300</v>
+      </c>
+      <c r="M66" s="3">
+        <v>300</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2842,10 +3177,10 @@
         <v>100</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-7100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-5300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-3700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-3300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-3000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-2300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-200</v>
       </c>
       <c r="H76" s="3">
         <v>-200</v>
       </c>
       <c r="I76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K76" s="3">
         <v>200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>300</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-200</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3626,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3257,20 +3654,26 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,22 +3886,28 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
@@ -3489,16 +3922,22 @@
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3952,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3551,8 +3992,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +4080,14 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3665,8 +4124,14 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,31 +4318,37 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
-      </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>200</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>200</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
@@ -3866,13 +4357,19 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,8 +4406,14 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3933,18 +4436,24 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MMMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>MMMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,90 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E8" s="3">
         <v>5100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
@@ -775,22 +779,25 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E9" s="3">
         <v>4900</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -807,34 +814,37 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3">
+        <v>200</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -851,20 +861,23 @@
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
         <v>-100</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -984,25 +1004,25 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,41 +1098,42 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5500</v>
-      </c>
-      <c r="E17" s="3">
-        <v>500</v>
       </c>
       <c r="F17" s="3">
         <v>500</v>
       </c>
       <c r="G17" s="3">
+        <v>500</v>
+      </c>
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
       <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
@@ -1116,41 +1143,44 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
@@ -1160,8 +1190,11 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,26 +1211,27 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1600</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1222,8 +1256,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1239,15 +1276,15 @@
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1266,8 +1303,11 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1275,17 +1315,17 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F22" s="3">
         <v>400</v>
       </c>
       <c r="G22" s="3">
+        <v>400</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
@@ -1310,52 +1350,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,26 +1773,29 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>1600</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1750,52 +1820,58 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,20 +2053,21 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -2000,19 +2087,22 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2169,17 +2268,17 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
@@ -2187,20 +2286,23 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
@@ -2220,19 +2322,22 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,34 +2380,37 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3">
-        <v>500</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>500</v>
@@ -2310,8 +2418,8 @@
       <c r="M48" s="3">
         <v>500</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+      <c r="N48" s="3">
+        <v>500</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2462,18 +2582,18 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2483,8 +2603,8 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
         <v>100</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
       <c r="K54" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L54" s="3">
         <v>500</v>
       </c>
       <c r="M54" s="3">
+        <v>500</v>
+      </c>
+      <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2654,8 +2785,8 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
+      <c r="N57" s="3">
+        <v>0</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>4</v>
@@ -2663,25 +2794,28 @@
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E58" s="3">
         <v>1100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>200</v>
-      </c>
-      <c r="H58" s="3">
-        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
@@ -2698,8 +2832,8 @@
       <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>100</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
@@ -2707,43 +2841,46 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E59" s="3">
         <v>4200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
-      </c>
-      <c r="H59" s="3">
-        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
       </c>
       <c r="J59" s="3">
+        <v>200</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
@@ -2751,34 +2888,37 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E60" s="3">
         <v>5200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>200</v>
       </c>
       <c r="J60" s="3">
         <v>200</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>100</v>
@@ -2786,8 +2926,8 @@
       <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
+      <c r="N60" s="3">
+        <v>100</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>4</v>
@@ -2795,8 +2935,11 @@
       <c r="P60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,34 +2982,37 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3">
-        <v>200</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>200</v>
@@ -2874,8 +3020,8 @@
       <c r="M62" s="3">
         <v>200</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+      <c r="N62" s="3">
+        <v>200</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,34 +3170,37 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E66" s="3">
         <v>5200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>200</v>
       </c>
       <c r="J66" s="3">
         <v>200</v>
       </c>
       <c r="K66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L66" s="3">
         <v>300</v>
@@ -3050,8 +3208,8 @@
       <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
+      <c r="N66" s="3">
+        <v>300</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>4</v>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3183,7 +3351,7 @@
         <v>100</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,25 +3612,28 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-200</v>
       </c>
       <c r="I76" s="3">
         <v>-200</v>
@@ -3456,25 +3642,28 @@
         <v>-200</v>
       </c>
       <c r="K76" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="L76" s="3">
         <v>200</v>
       </c>
       <c r="M76" s="3">
+        <v>200</v>
+      </c>
+      <c r="N76" s="3">
         <v>300</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3660,20 +3859,23 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4106,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3904,13 +4121,13 @@
         <v>-200</v>
       </c>
       <c r="F89" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="G89" s="3">
         <v>-400</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
@@ -3928,7 +4145,7 @@
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E100" s="3">
         <v>200</v>
       </c>
       <c r="F100" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G100" s="3">
         <v>400</v>
       </c>
       <c r="H100" s="3">
+        <v>400</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,13 +4661,16 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -4442,18 +4694,21 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MMMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMMM_QTR_FIN.xlsx
@@ -744,7 +744,7 @@
         <v>4700</v>
       </c>
       <c r="E8" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="F8" s="3">
         <v>200</v>
@@ -791,7 +791,7 @@
         <v>4500</v>
       </c>
       <c r="E9" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -1105,10 +1105,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="E17" s="3">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="F17" s="3">
         <v>500</v>
@@ -1152,10 +1152,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E18" s="3">
-        <v>-400</v>
+        <v>-700</v>
       </c>
       <c r="F18" s="3">
         <v>-300</v>
@@ -1218,7 +1218,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E20" s="3">
         <v>-1600</v>
@@ -1312,10 +1312,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E22" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="F22" s="3">
         <v>400</v>
@@ -1359,10 +1359,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="E23" s="3">
-        <v>-2300</v>
+        <v>-3000</v>
       </c>
       <c r="F23" s="3">
         <v>-700</v>
@@ -1500,10 +1500,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="E26" s="3">
-        <v>-2300</v>
+        <v>-3000</v>
       </c>
       <c r="F26" s="3">
         <v>-700</v>
@@ -1547,10 +1547,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="E27" s="3">
-        <v>-2300</v>
+        <v>-3000</v>
       </c>
       <c r="F27" s="3">
         <v>-700</v>
@@ -1782,7 +1782,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="E32" s="3">
         <v>1600</v>
@@ -1829,10 +1829,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="E33" s="3">
-        <v>-2300</v>
+        <v>-3000</v>
       </c>
       <c r="F33" s="3">
         <v>-700</v>
@@ -1923,10 +1923,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="E35" s="3">
-        <v>-2300</v>
+        <v>-3000</v>
       </c>
       <c r="F35" s="3">
         <v>-700</v>
@@ -2803,7 +2803,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="E58" s="3">
         <v>1100</v>
@@ -2850,7 +2850,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4100</v>
+        <v>2900</v>
       </c>
       <c r="E59" s="3">
         <v>4200</v>
@@ -2897,7 +2897,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5500</v>
+        <v>3700</v>
       </c>
       <c r="E60" s="3">
         <v>5200</v>
@@ -3179,7 +3179,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5500</v>
+        <v>3700</v>
       </c>
       <c r="E66" s="3">
         <v>5200</v>
@@ -3433,7 +3433,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-10600</v>
+        <v>-11000</v>
       </c>
       <c r="E72" s="3">
         <v>-10100</v>
@@ -3621,7 +3621,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-5200</v>
+        <v>-3400</v>
       </c>
       <c r="E76" s="3">
         <v>-5300</v>
@@ -3767,10 +3767,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="E81" s="3">
-        <v>-2300</v>
+        <v>-3000</v>
       </c>
       <c r="F81" s="3">
         <v>-700</v>
@@ -4115,10 +4115,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
@@ -4576,10 +4576,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E100" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F100" s="3">
         <v>200</v>

--- a/AAII_Financials/Quarterly/MMMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
   <si>
     <t>MMMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,103 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F8" s="3">
         <v>4700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>5300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -782,28 +789,34 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F9" s="3">
         <v>4500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>5100</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -817,40 +830,46 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3">
         <v>100</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -864,20 +883,26 @@
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,16 +1022,22 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1007,28 +1046,28 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1036,8 +1075,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F17" s="3">
         <v>5100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>6000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,32 +1277,34 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-1600</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1259,8 +1326,14 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1279,18 +1352,18 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1306,32 +1379,38 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
-      </c>
-      <c r="E22" s="3">
-        <v>700</v>
       </c>
       <c r="F22" s="3">
         <v>400</v>
       </c>
       <c r="G22" s="3">
+        <v>700</v>
+      </c>
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
+        <v>400</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
@@ -1353,55 +1432,67 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-200</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-200</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-200</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,32 +1909,38 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>1600</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1823,55 +1962,67 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-200</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-200</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,26 +2225,28 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>500</v>
+      </c>
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2090,19 +2263,25 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,31 +2327,37 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2195,8 +2380,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2433,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2253,62 +2450,68 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>500</v>
+      </c>
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
@@ -2325,19 +2528,25 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2592,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2409,29 +2624,35 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>500</v>
-      </c>
-      <c r="M48" s="3">
-        <v>500</v>
+        <v>0</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>500</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
+      <c r="O48" s="3">
+        <v>500</v>
+      </c>
+      <c r="P48" s="3">
+        <v>500</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2585,32 +2824,32 @@
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2618,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>500</v>
+      </c>
+      <c r="F54" s="3">
         <v>400</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>100</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>600</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +3009,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2788,40 +3049,46 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>900</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>800</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>100</v>
-      </c>
-      <c r="J58" s="3">
-        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -2835,111 +3102,129 @@
       <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="3">
+        <v>100</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2900</v>
+        <v>3200</v>
       </c>
       <c r="E59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G59" s="3">
         <v>4200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3700</v>
+        <v>4700</v>
       </c>
       <c r="E60" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F60" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G60" s="3">
         <v>5200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>100</v>
-      </c>
-      <c r="M60" s="3">
-        <v>100</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
+      <c r="O60" s="3">
+        <v>100</v>
+      </c>
+      <c r="P60" s="3">
+        <v>100</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3011,29 +3302,35 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>200</v>
-      </c>
-      <c r="M62" s="3">
-        <v>200</v>
+        <v>0</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>200</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3">
+        <v>200</v>
+      </c>
+      <c r="P62" s="3">
+        <v>200</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3700</v>
+        <v>4700</v>
       </c>
       <c r="E66" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F66" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G66" s="3">
         <v>5200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>200</v>
-      </c>
-      <c r="L66" s="3">
-        <v>300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>300</v>
       </c>
       <c r="N66" s="3">
         <v>300</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
+      <c r="O66" s="3">
+        <v>300</v>
+      </c>
+      <c r="P66" s="3">
+        <v>300</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,16 +3662,22 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E70" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F70" s="3">
         <v>100</v>
@@ -3354,10 +3689,10 @@
         <v>100</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-11000</v>
+        <v>-17100</v>
       </c>
       <c r="E72" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="G72" s="3">
         <v>-10100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-7800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-7100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-5300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-3700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-3300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-3000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-2500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-2300</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-3400</v>
+        <v>-4300</v>
       </c>
       <c r="E76" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="G76" s="3">
         <v>-5300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-200</v>
       </c>
       <c r="K76" s="3">
         <v>-200</v>
       </c>
       <c r="L76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N76" s="3">
         <v>200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>300</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-200</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3862,20 +4259,26 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,31 +4536,37 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-200</v>
       </c>
       <c r="G89" s="3">
         <v>-400</v>
       </c>
       <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
-        <v>-100</v>
-      </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
@@ -4148,16 +4581,22 @@
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,22 +4769,28 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -4363,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,40 +5055,46 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>600</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
-      </c>
-      <c r="E100" s="3">
-        <v>400</v>
-      </c>
-      <c r="F100" s="3">
-        <v>200</v>
       </c>
       <c r="G100" s="3">
         <v>400</v>
       </c>
       <c r="H100" s="3">
+        <v>200</v>
+      </c>
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>200</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
@@ -4612,13 +5103,19 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,20 +5161,26 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -4697,18 +5200,24 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MMMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
   <si>
     <t>MMMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,106 +665,110 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E8" s="3">
         <v>9000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
@@ -795,31 +799,34 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E9" s="3">
         <v>9000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5100</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -836,43 +843,46 @@
       <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3">
         <v>100</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>-300</v>
-      </c>
-      <c r="F10" s="3">
-        <v>200</v>
       </c>
       <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="H10" s="3">
+        <v>200</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -889,20 +899,23 @@
       <c r="O10" s="3">
         <v>0</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,20 +1045,23 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>1300</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1052,25 +1072,25 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,50 +1178,51 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
         <v>9600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>500</v>
       </c>
       <c r="I17" s="3">
         <v>500</v>
       </c>
       <c r="J17" s="3">
+        <v>500</v>
+      </c>
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
       <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
@@ -1205,50 +1232,53 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,35 +1312,36 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1600</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1358,15 +1395,15 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1385,35 +1422,38 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
-      </c>
-      <c r="E22" s="3">
-        <v>400</v>
       </c>
       <c r="F22" s="3">
         <v>400</v>
       </c>
       <c r="G22" s="3">
+        <v>400</v>
+      </c>
+      <c r="H22" s="3">
         <v>700</v>
-      </c>
-      <c r="H22" s="3">
-        <v>400</v>
       </c>
       <c r="I22" s="3">
         <v>400</v>
       </c>
       <c r="J22" s="3">
+        <v>400</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
       <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
       <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
       <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,35 +1982,38 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1600</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
       <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
       <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,29 +2313,30 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E41" s="3">
         <v>500</v>
       </c>
       <c r="F41" s="3">
+        <v>500</v>
+      </c>
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2269,19 +2356,22 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,16 +2423,19 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
+      <c r="E43" s="3">
+        <v>100</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
@@ -2359,8 +2452,8 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,19 +2535,22 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
@@ -2465,8 +2564,8 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2474,17 +2573,17 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
@@ -2492,29 +2591,32 @@
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -2534,19 +2636,22 @@
         <v>0</v>
       </c>
       <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2630,11 +2738,11 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3">
-        <v>500</v>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>500</v>
@@ -2642,8 +2750,8 @@
       <c r="P48" s="3">
         <v>500</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
+      <c r="Q48" s="3">
+        <v>500</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,38 +2927,41 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2851,8 +2971,8 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>700</v>
+      </c>
+      <c r="E54" s="3">
         <v>600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>400</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
       <c r="N54" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="O54" s="3">
         <v>500</v>
       </c>
       <c r="P54" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q54" s="3">
         <v>600</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3055,8 +3186,8 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
+      <c r="Q57" s="3">
+        <v>0</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>4</v>
@@ -3064,34 +3195,37 @@
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E58" s="3">
         <v>1400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
-      </c>
-      <c r="K58" s="3">
-        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
@@ -3108,8 +3242,8 @@
       <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
+      <c r="Q58" s="3">
+        <v>100</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
@@ -3117,52 +3251,55 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E59" s="3">
         <v>3200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
-      </c>
-      <c r="K59" s="3">
-        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
       </c>
       <c r="M59" s="3">
+        <v>200</v>
+      </c>
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
+      <c r="Q59" s="3">
+        <v>0</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>4</v>
@@ -3170,43 +3307,46 @@
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E60" s="3">
         <v>4700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
-      </c>
-      <c r="L60" s="3">
-        <v>200</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
       </c>
       <c r="N60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O60" s="3">
         <v>100</v>
@@ -3214,8 +3354,8 @@
       <c r="P60" s="3">
         <v>100</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
+      <c r="Q60" s="3">
+        <v>100</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>4</v>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3308,11 +3454,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3">
-        <v>200</v>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>200</v>
@@ -3320,8 +3466,8 @@
       <c r="P62" s="3">
         <v>200</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
+      <c r="Q62" s="3">
+        <v>200</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,43 +3643,46 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E66" s="3">
         <v>4700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>200</v>
       </c>
       <c r="M66" s="3">
         <v>200</v>
       </c>
       <c r="N66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O66" s="3">
         <v>300</v>
@@ -3532,8 +3690,8 @@
       <c r="P66" s="3">
         <v>300</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
+      <c r="Q66" s="3">
+        <v>300</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>4</v>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3680,7 +3848,7 @@
         <v>300</v>
       </c>
       <c r="F70" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G70" s="3">
         <v>100</v>
@@ -3695,7 +3863,7 @@
         <v>100</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-17100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-16900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,34 +4169,37 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-200</v>
       </c>
       <c r="L76" s="3">
         <v>-200</v>
@@ -4022,25 +4208,28 @@
         <v>-200</v>
       </c>
       <c r="N76" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="O76" s="3">
         <v>200</v>
       </c>
       <c r="P76" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q76" s="3">
         <v>300</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
       <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4265,20 +4464,23 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,34 +4756,37 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-600</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>-600</v>
       </c>
       <c r="F89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-400</v>
       </c>
       <c r="J89" s="3">
         <v>-400</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
@@ -4587,7 +4804,7 @@
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,25 +5002,28 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
-      </c>
-      <c r="I100" s="3">
-        <v>400</v>
       </c>
       <c r="J100" s="3">
         <v>400</v>
       </c>
       <c r="K100" s="3">
+        <v>400</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
-      </c>
-      <c r="M100" s="3">
-        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5179,11 +5431,11 @@
         <v>100</v>
       </c>
       <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -5206,18 +5458,21 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MMMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>MMMM</t>
   </si>
@@ -1184,8 +1184,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>9200</v>
       </c>
       <c r="E17" s="3">
         <v>9600</v>
@@ -1240,8 +1240,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
         <v>-600</v>
@@ -1318,8 +1318,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>900</v>
@@ -1654,8 +1654,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-700</v>
       </c>
       <c r="E26" s="3">
         <v>-200</v>
@@ -1710,8 +1710,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-700</v>
       </c>
       <c r="E27" s="3">
         <v>-200</v>
@@ -1990,8 +1990,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>-900</v>
@@ -2046,8 +2046,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-700</v>
       </c>
       <c r="E33" s="3">
         <v>-200</v>
@@ -2158,8 +2158,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-700</v>
       </c>
       <c r="E35" s="3">
         <v>-200</v>
@@ -2658,23 +2658,23 @@
       <c r="D47" s="3">
         <v>0</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -4350,8 +4350,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-700</v>
       </c>
       <c r="E81" s="3">
         <v>-200</v>

--- a/AAII_Financials/Quarterly/MMMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>MMMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,113 +665,117 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E8" s="3">
         <v>9100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
@@ -802,34 +806,37 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E9" s="3">
         <v>8700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5100</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -846,46 +853,49 @@
       <c r="P9" s="3">
         <v>0</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3">
         <v>100</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>-300</v>
-      </c>
-      <c r="G10" s="3">
-        <v>200</v>
       </c>
       <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
+      <c r="I10" s="3">
+        <v>200</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -902,20 +912,23 @@
       <c r="P10" s="3">
         <v>0</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,13 +949,14 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>1600</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>4</v>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,23 +1065,26 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>1300</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1075,25 +1095,25 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,53 +1205,54 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E17" s="3">
         <v>9200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6000</v>
-      </c>
-      <c r="I17" s="3">
-        <v>500</v>
       </c>
       <c r="J17" s="3">
         <v>500</v>
       </c>
       <c r="K17" s="3">
+        <v>500</v>
+      </c>
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
       </c>
       <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
@@ -1235,53 +1262,56 @@
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
@@ -1291,8 +1321,11 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,38 +1346,39 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1600</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1369,8 +1403,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1398,15 +1435,15 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1425,38 +1462,41 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>500</v>
-      </c>
-      <c r="F22" s="3">
-        <v>400</v>
       </c>
       <c r="G22" s="3">
         <v>400</v>
       </c>
       <c r="H22" s="3">
+        <v>400</v>
+      </c>
+      <c r="I22" s="3">
         <v>700</v>
-      </c>
-      <c r="I22" s="3">
-        <v>400</v>
       </c>
       <c r="J22" s="3">
         <v>400</v>
       </c>
       <c r="K22" s="3">
+        <v>400</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
@@ -1481,64 +1521,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
       </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
       </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,38 +2052,41 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1600</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2041,64 +2111,70 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
       </c>
       <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
       </c>
       <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,32 +2400,33 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
-      </c>
-      <c r="E41" s="3">
-        <v>500</v>
       </c>
       <c r="F41" s="3">
         <v>500</v>
       </c>
       <c r="G41" s="3">
+        <v>500</v>
+      </c>
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2359,19 +2446,22 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2437,8 +2530,8 @@
       <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="F43" s="3">
+        <v>100</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
@@ -2455,8 +2548,8 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,22 +2634,25 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
@@ -2567,8 +2666,8 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2576,17 +2675,17 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
@@ -2594,32 +2693,35 @@
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -2639,27 +2741,30 @@
         <v>0</v>
       </c>
       <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
+      <c r="E47" s="3">
+        <v>0</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>4</v>
@@ -2676,8 +2781,8 @@
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2706,8 +2811,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2741,11 +2849,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" s="3">
-        <v>500</v>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>500</v>
@@ -2753,8 +2861,8 @@
       <c r="Q48" s="3">
         <v>500</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
+      <c r="R48" s="3">
+        <v>500</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2956,15 +3076,15 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2974,8 +3094,8 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>900</v>
+      </c>
+      <c r="E54" s="3">
         <v>700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
       <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
       <c r="O54" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="P54" s="3">
         <v>500</v>
       </c>
       <c r="Q54" s="3">
+        <v>500</v>
+      </c>
+      <c r="R54" s="3">
         <v>600</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3272,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3189,8 +3320,8 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
+      <c r="R57" s="3">
+        <v>0</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>4</v>
@@ -3198,37 +3329,40 @@
       <c r="T57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E58" s="3">
         <v>1700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3">
-        <v>1400</v>
-      </c>
       <c r="H58" s="3">
+        <v>800</v>
+      </c>
+      <c r="I58" s="3">
         <v>1100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
-      </c>
-      <c r="L58" s="3">
-        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
@@ -3245,8 +3379,8 @@
       <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
+      <c r="R58" s="3">
+        <v>100</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
@@ -3254,55 +3388,58 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E59" s="3">
         <v>2600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4900</v>
       </c>
-      <c r="G59" s="3">
-        <v>4100</v>
-      </c>
       <c r="H59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I59" s="3">
         <v>4200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
-      </c>
-      <c r="L59" s="3">
-        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
       </c>
       <c r="N59" s="3">
+        <v>200</v>
+      </c>
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
+      <c r="R59" s="3">
+        <v>0</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>4</v>
@@ -3310,46 +3447,49 @@
       <c r="T59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E60" s="3">
         <v>4300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5800</v>
       </c>
-      <c r="G60" s="3">
-        <v>5500</v>
-      </c>
       <c r="H60" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I60" s="3">
         <v>5200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
       </c>
       <c r="O60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>100</v>
@@ -3357,8 +3497,8 @@
       <c r="Q60" s="3">
         <v>100</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
+      <c r="R60" s="3">
+        <v>100</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>4</v>
@@ -3366,8 +3506,11 @@
       <c r="T60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3457,11 +3603,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3">
-        <v>200</v>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>200</v>
@@ -3469,8 +3615,8 @@
       <c r="Q62" s="3">
         <v>200</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
+      <c r="R62" s="3">
+        <v>200</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,46 +3801,49 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E66" s="3">
         <v>4300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5800</v>
       </c>
-      <c r="G66" s="3">
-        <v>5500</v>
-      </c>
       <c r="H66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I66" s="3">
         <v>5200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>200</v>
       </c>
       <c r="N66" s="3">
         <v>200</v>
       </c>
       <c r="O66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P66" s="3">
         <v>300</v>
@@ -3693,8 +3851,8 @@
       <c r="Q66" s="3">
         <v>300</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
+      <c r="R66" s="3">
+        <v>300</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>4</v>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,13 +4001,16 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E70" s="3">
         <v>300</v>
@@ -3851,7 +4019,7 @@
         <v>300</v>
       </c>
       <c r="G70" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H70" s="3">
         <v>100</v>
@@ -3866,7 +4034,7 @@
         <v>100</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-17800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-17100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-16900</v>
       </c>
-      <c r="G72" s="3">
-        <v>-10600</v>
-      </c>
       <c r="H72" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="I72" s="3">
         <v>-10100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2300</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,37 +4355,40 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5600</v>
       </c>
-      <c r="G76" s="3">
-        <v>-5200</v>
-      </c>
       <c r="H76" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="I76" s="3">
         <v>-5300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-200</v>
       </c>
       <c r="M76" s="3">
         <v>-200</v>
@@ -4211,25 +4397,28 @@
         <v>-200</v>
       </c>
       <c r="O76" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="P76" s="3">
         <v>200</v>
       </c>
       <c r="Q76" s="3">
+        <v>200</v>
+      </c>
+      <c r="R76" s="3">
         <v>300</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
       </c>
       <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4467,20 +4666,23 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,37 +4973,40 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-600</v>
       </c>
       <c r="F89" s="3">
         <v>-600</v>
       </c>
       <c r="G89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-400</v>
       </c>
       <c r="K89" s="3">
         <v>-400</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
@@ -4807,7 +5024,7 @@
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -4815,8 +5032,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5014,19 +5244,19 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>400</v>
       </c>
       <c r="K100" s="3">
         <v>400</v>
       </c>
       <c r="L100" s="3">
+        <v>400</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,13 +5668,16 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
         <v>100</v>
@@ -5434,11 +5686,11 @@
         <v>100</v>
       </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -5461,18 +5713,21 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MMMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>MMMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,120 +665,124 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E8" s="3">
         <v>10600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
@@ -809,37 +813,40 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E9" s="3">
         <v>9500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5100</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -856,49 +863,52 @@
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3">
         <v>100</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E10" s="3">
         <v>1100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>-300</v>
-      </c>
-      <c r="H10" s="3">
-        <v>200</v>
       </c>
       <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
+      <c r="J10" s="3">
+        <v>200</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
@@ -915,20 +925,23 @@
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3">
         <v>-100</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,17 +963,18 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3">
         <v>1600</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,26 +1085,29 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>2700</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
         <v>1300</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -1098,25 +1118,25 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>500</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,56 +1232,57 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E17" s="3">
         <v>14700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>500</v>
       </c>
       <c r="K17" s="3">
         <v>500</v>
       </c>
       <c r="L17" s="3">
+        <v>500</v>
+      </c>
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
-      </c>
-      <c r="O17" s="3">
-        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
       </c>
       <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
@@ -1265,56 +1292,59 @@
       <c r="U17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
@@ -1324,8 +1354,11 @@
       <c r="U18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,41 +1380,42 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1600</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1406,8 +1440,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1438,15 +1475,15 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1465,41 +1502,44 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>400</v>
       </c>
       <c r="H22" s="3">
         <v>400</v>
       </c>
       <c r="I22" s="3">
+        <v>400</v>
+      </c>
+      <c r="J22" s="3">
         <v>700</v>
-      </c>
-      <c r="J22" s="3">
-        <v>400</v>
       </c>
       <c r="K22" s="3">
         <v>400</v>
       </c>
       <c r="L22" s="3">
+        <v>400</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
@@ -1524,67 +1564,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
       <c r="U23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,41 +2122,44 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1600</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2114,67 +2184,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,35 +2487,36 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>600</v>
-      </c>
-      <c r="F41" s="3">
-        <v>500</v>
       </c>
       <c r="G41" s="3">
         <v>500</v>
       </c>
       <c r="H41" s="3">
+        <v>500</v>
+      </c>
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2449,19 +2536,22 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,13 +2609,16 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>100</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -2533,8 +2626,8 @@
       <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+      <c r="G43" s="3">
+        <v>100</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
@@ -2551,8 +2644,8 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,25 +2733,28 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
@@ -2669,8 +2768,8 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2678,17 +2777,17 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>4</v>
@@ -2696,35 +2795,38 @@
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -2744,30 +2846,33 @@
         <v>0</v>
       </c>
       <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
         <v>100</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
+      <c r="F47" s="3">
+        <v>0</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>4</v>
@@ -2784,8 +2889,8 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2814,8 +2919,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2852,11 +2960,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="3">
-        <v>500</v>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>500</v>
@@ -2864,8 +2972,8 @@
       <c r="R48" s="3">
         <v>500</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
+      <c r="S48" s="3">
+        <v>500</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>4</v>
@@ -2873,8 +2981,11 @@
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3079,15 +3199,15 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3097,8 +3217,8 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
         <v>900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>400</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
       <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
       <c r="P54" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="3">
         <v>500</v>
       </c>
       <c r="R54" s="3">
+        <v>500</v>
+      </c>
+      <c r="S54" s="3">
         <v>600</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3403,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3323,8 +3454,8 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
+      <c r="S57" s="3">
+        <v>0</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>4</v>
@@ -3332,40 +3463,43 @@
       <c r="U57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E58" s="3">
         <v>4300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>200</v>
-      </c>
-      <c r="M58" s="3">
-        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
@@ -3382,8 +3516,8 @@
       <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
+      <c r="S58" s="3">
+        <v>100</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>4</v>
@@ -3391,58 +3525,61 @@
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E59" s="3">
         <v>3200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
-      </c>
-      <c r="M59" s="3">
-        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
       </c>
       <c r="O59" s="3">
+        <v>200</v>
+      </c>
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
+      <c r="S59" s="3">
+        <v>0</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>4</v>
@@ -3450,49 +3587,52 @@
       <c r="U59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E60" s="3">
         <v>7500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>200</v>
       </c>
       <c r="O60" s="3">
         <v>200</v>
       </c>
       <c r="P60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q60" s="3">
         <v>100</v>
@@ -3500,8 +3640,8 @@
       <c r="R60" s="3">
         <v>100</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>4</v>
+      <c r="S60" s="3">
+        <v>100</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>4</v>
@@ -3509,8 +3649,11 @@
       <c r="U60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3711,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3606,11 +3752,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P62" s="3">
-        <v>200</v>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>200</v>
@@ -3618,8 +3764,8 @@
       <c r="R62" s="3">
         <v>200</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
+      <c r="S62" s="3">
+        <v>200</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,49 +3959,52 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E66" s="3">
         <v>7500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>200</v>
       </c>
       <c r="O66" s="3">
         <v>200</v>
       </c>
       <c r="P66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q66" s="3">
         <v>300</v>
@@ -3854,8 +4012,8 @@
       <c r="R66" s="3">
         <v>300</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>4</v>
+      <c r="S66" s="3">
+        <v>300</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>4</v>
@@ -3863,8 +4021,11 @@
       <c r="U66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,16 +4169,19 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>300</v>
+      </c>
+      <c r="E70" s="3">
         <v>200</v>
-      </c>
-      <c r="E70" s="3">
-        <v>300</v>
       </c>
       <c r="F70" s="3">
         <v>300</v>
@@ -4022,7 +4190,7 @@
         <v>300</v>
       </c>
       <c r="H70" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I70" s="3">
         <v>100</v>
@@ -4037,7 +4205,7 @@
         <v>100</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-22600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-17800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-17100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-16900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2300</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,40 +4541,43 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-200</v>
       </c>
       <c r="N76" s="3">
         <v>-200</v>
@@ -4400,25 +4586,28 @@
         <v>-200</v>
       </c>
       <c r="P76" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="Q76" s="3">
         <v>200</v>
       </c>
       <c r="R76" s="3">
+        <v>200</v>
+      </c>
+      <c r="S76" s="3">
         <v>300</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4669,20 +4868,23 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T83" s="3">
         <v>100</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,40 +5190,43 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-600</v>
       </c>
       <c r="G89" s="3">
         <v>-600</v>
       </c>
       <c r="H89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-400</v>
       </c>
       <c r="L89" s="3">
         <v>-400</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
@@ -5027,7 +5244,7 @@
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -5035,8 +5252,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5462,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5247,19 +5477,19 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -5294,8 +5524,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>2400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
-      </c>
-      <c r="K100" s="3">
-        <v>400</v>
       </c>
       <c r="L100" s="3">
         <v>400</v>
       </c>
       <c r="M100" s="3">
+        <v>400</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
-      </c>
-      <c r="O100" s="3">
-        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,16 +5920,19 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
-      </c>
-      <c r="E102" s="3">
-        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>100</v>
@@ -5689,11 +5941,11 @@
         <v>100</v>
       </c>
       <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -5716,18 +5968,21 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MMMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
   <si>
     <t>MMMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,130 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E8" s="3">
         <v>11100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
@@ -816,40 +819,43 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E9" s="3">
         <v>11200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5100</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -866,52 +872,55 @@
       <c r="R9" s="3">
         <v>0</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3">
         <v>100</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>700</v>
+      </c>
+      <c r="E10" s="3">
         <v>-100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>-300</v>
-      </c>
-      <c r="I10" s="3">
-        <v>200</v>
       </c>
       <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
+      <c r="K10" s="3">
+        <v>200</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -928,20 +937,23 @@
       <c r="R10" s="3">
         <v>0</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3">
         <v>-100</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,20 +976,21 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
         <v>1600</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1026,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,29 +1104,32 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>2700</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
         <v>1300</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1121,25 +1140,25 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>500</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1150,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,59 +1258,60 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E17" s="3">
         <v>12500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6000</v>
-      </c>
-      <c r="K17" s="3">
-        <v>500</v>
       </c>
       <c r="L17" s="3">
         <v>500</v>
       </c>
       <c r="M17" s="3">
+        <v>500</v>
+      </c>
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
       </c>
       <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
@@ -1295,59 +1321,62 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
       <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
@@ -1357,8 +1386,11 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,44 +1413,45 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1600</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1443,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1478,15 +1514,15 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1505,44 +1541,47 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>400</v>
       </c>
       <c r="I22" s="3">
         <v>400</v>
       </c>
       <c r="J22" s="3">
+        <v>400</v>
+      </c>
+      <c r="K22" s="3">
         <v>700</v>
-      </c>
-      <c r="K22" s="3">
-        <v>400</v>
       </c>
       <c r="L22" s="3">
         <v>400</v>
       </c>
       <c r="M22" s="3">
+        <v>400</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
@@ -1567,70 +1606,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
       <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
         <v>0</v>
       </c>
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
       <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
       <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,44 +2191,47 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E32" s="3">
         <v>3400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1600</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2187,70 +2256,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
       <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
       <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,38 +2573,39 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
-      </c>
-      <c r="G41" s="3">
-        <v>500</v>
       </c>
       <c r="H41" s="3">
         <v>500</v>
       </c>
       <c r="I41" s="3">
+        <v>500</v>
+      </c>
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2539,19 +2625,22 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,16 +2701,19 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3">
-        <v>100</v>
+      <c r="D43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -2629,8 +2721,8 @@
       <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
+      <c r="H43" s="3">
+        <v>100</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
@@ -2647,8 +2739,8 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2674,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2747,17 +2845,17 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -2771,8 +2869,8 @@
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2780,17 +2878,17 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
@@ -2798,38 +2896,41 @@
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -2849,33 +2950,36 @@
         <v>0</v>
       </c>
       <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
         <v>100</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
+      <c r="G47" s="3">
+        <v>0</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
@@ -2892,8 +2996,8 @@
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2922,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2963,11 +3070,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>500</v>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>500</v>
@@ -2975,8 +3082,8 @@
       <c r="S48" s="3">
         <v>500</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
+      <c r="T48" s="3">
+        <v>500</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>4</v>
@@ -2984,8 +3091,11 @@
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3202,15 +3321,15 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3220,8 +3339,8 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3232,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E54" s="3">
         <v>200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
       <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
         <v>100</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
       <c r="Q54" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="R54" s="3">
         <v>500</v>
       </c>
       <c r="S54" s="3">
+        <v>500</v>
+      </c>
+      <c r="T54" s="3">
         <v>600</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,13 +3533,14 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -3457,8 +3587,8 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
+      <c r="T57" s="3">
+        <v>0</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>4</v>
@@ -3466,43 +3596,46 @@
       <c r="V57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E58" s="3">
         <v>4500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>200</v>
-      </c>
-      <c r="N58" s="3">
-        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
@@ -3519,8 +3652,8 @@
       <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
+      <c r="T58" s="3">
+        <v>100</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
@@ -3528,61 +3661,64 @@
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E59" s="3">
         <v>5600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
-      </c>
-      <c r="N59" s="3">
-        <v>200</v>
       </c>
       <c r="O59" s="3">
         <v>200</v>
       </c>
       <c r="P59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
+      <c r="T59" s="3">
+        <v>0</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>4</v>
@@ -3590,52 +3726,55 @@
       <c r="V59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E60" s="3">
         <v>10100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
-      </c>
-      <c r="O60" s="3">
-        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>200</v>
       </c>
       <c r="Q60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R60" s="3">
         <v>100</v>
@@ -3643,8 +3782,8 @@
       <c r="S60" s="3">
         <v>100</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>4</v>
+      <c r="T60" s="3">
+        <v>100</v>
       </c>
       <c r="U60" s="3" t="s">
         <v>4</v>
@@ -3652,8 +3791,11 @@
       <c r="V60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3755,11 +3900,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>200</v>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
         <v>200</v>
@@ -3767,8 +3912,8 @@
       <c r="S62" s="3">
         <v>200</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
+      <c r="T62" s="3">
+        <v>200</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>4</v>
@@ -3776,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,52 +4116,55 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E66" s="3">
         <v>10100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>300</v>
-      </c>
-      <c r="O66" s="3">
-        <v>200</v>
       </c>
       <c r="P66" s="3">
         <v>200</v>
       </c>
       <c r="Q66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R66" s="3">
         <v>300</v>
@@ -4015,8 +4172,8 @@
       <c r="S66" s="3">
         <v>300</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>4</v>
+      <c r="T66" s="3">
+        <v>300</v>
       </c>
       <c r="U66" s="3" t="s">
         <v>4</v>
@@ -4024,8 +4181,11 @@
       <c r="V66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4181,10 +4348,10 @@
         <v>300</v>
       </c>
       <c r="E70" s="3">
+        <v>300</v>
+      </c>
+      <c r="F70" s="3">
         <v>200</v>
-      </c>
-      <c r="F70" s="3">
-        <v>300</v>
       </c>
       <c r="G70" s="3">
         <v>300</v>
@@ -4193,7 +4360,7 @@
         <v>300</v>
       </c>
       <c r="I70" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J70" s="3">
         <v>100</v>
@@ -4208,7 +4375,7 @@
         <v>100</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-27800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-22600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-17800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-16900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2300</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,43 +4726,46 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-10200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-6800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-200</v>
       </c>
       <c r="O76" s="3">
         <v>-200</v>
@@ -4589,25 +4774,28 @@
         <v>-200</v>
       </c>
       <c r="Q76" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="R76" s="3">
         <v>200</v>
       </c>
       <c r="S76" s="3">
+        <v>200</v>
+      </c>
+      <c r="T76" s="3">
         <v>300</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
       <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4871,20 +5069,23 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U83" s="3">
         <v>100</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,43 +5406,46 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-600</v>
       </c>
       <c r="H89" s="3">
         <v>-600</v>
       </c>
       <c r="I89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-400</v>
       </c>
       <c r="M89" s="3">
         <v>-400</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
@@ -5247,7 +5463,7 @@
         <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
@@ -5255,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5341,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5480,19 +5709,19 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -5527,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>2400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
-      </c>
-      <c r="L100" s="3">
-        <v>400</v>
       </c>
       <c r="M100" s="3">
         <v>400</v>
       </c>
       <c r="N100" s="3">
+        <v>400</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
-      </c>
-      <c r="P100" s="3">
-        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,19 +6171,22 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
-      </c>
-      <c r="F102" s="3">
-        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>100</v>
@@ -5944,11 +6195,11 @@
         <v>100</v>
       </c>
       <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -5971,18 +6222,21 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MMMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>MMMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,136 +665,144 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>17700</v>
+      </c>
+      <c r="F8" s="3">
         <v>12000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>11100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>10600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>9100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>9000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>7300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
@@ -822,46 +830,52 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F9" s="3">
         <v>11300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>11200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>9500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>8700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>9000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>7600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>5100</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -875,58 +889,64 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
+      <c r="T9" s="3">
+        <v>0</v>
       </c>
       <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3">
         <v>100</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F10" s="3">
         <v>700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>-300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
@@ -940,20 +960,26 @@
       <c r="S10" s="3">
         <v>0</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
+      <c r="T10" s="3">
+        <v>0</v>
       </c>
       <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3">
         <v>-100</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +1003,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,15 +1016,15 @@
       <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3">
         <v>1600</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1042,8 +1070,14 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,35 +1141,41 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>2700</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>1300</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1143,28 +1183,28 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>500</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1172,8 +1212,14 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1283,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1311,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>16300</v>
+      </c>
+      <c r="F17" s="3">
         <v>12700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>12500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>14700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>9200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>9600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>10100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>6000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
       <c r="V17" s="3">
         <v>0</v>
       </c>
       <c r="W17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-4100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
         <v>0</v>
       </c>
       <c r="W18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,50 +1480,52 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-3400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1600</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1479,16 +1547,22 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>4000</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1517,18 +1591,18 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1544,19 +1618,25 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>700</v>
+      </c>
+      <c r="F22" s="3">
         <v>600</v>
-      </c>
-      <c r="E22" s="3">
-        <v>400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>500</v>
       </c>
       <c r="G22" s="3">
         <v>400</v>
@@ -1568,26 +1648,26 @@
         <v>400</v>
       </c>
       <c r="J22" s="3">
+        <v>500</v>
+      </c>
+      <c r="K22" s="3">
         <v>400</v>
-      </c>
-      <c r="K22" s="3">
-        <v>700</v>
       </c>
       <c r="L22" s="3">
         <v>400</v>
       </c>
       <c r="M22" s="3">
+        <v>700</v>
+      </c>
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
+        <v>400</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
@@ -1609,73 +1689,85 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-5200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-4800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-4300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-200</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1831,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1902,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-5200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-4800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-4300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-200</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-5200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-4800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-200</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2186,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,50 +2328,56 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F32" s="3">
         <v>1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>3400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1600</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2259,73 +2399,85 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-5200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-4800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-200</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2541,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-5200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-4800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-200</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,44 +2746,46 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>500</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -2628,19 +2802,25 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,31 +2884,37 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F43" s="3">
         <v>2100</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
-      <c r="G43" s="3">
-        <v>100</v>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>100</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
@@ -2742,11 +2928,11 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2769,8 +2955,14 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,34 +3026,40 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
@@ -2872,71 +3070,77 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
+      <c r="V45" s="3">
+        <v>0</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F46" s="3">
         <v>2400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
@@ -2953,39 +3157,45 @@
         <v>0</v>
       </c>
       <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
         <v>100</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+      <c r="E47" s="3">
+        <v>100</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
@@ -2999,11 +3209,11 @@
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -3029,8 +3239,14 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3073,29 +3289,35 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
+      <c r="Q48" s="3">
+        <v>0</v>
       </c>
       <c r="R48" s="3">
-        <v>500</v>
-      </c>
-      <c r="S48" s="3">
-        <v>500</v>
+        <v>0</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T48" s="3">
         <v>500</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
+      <c r="U48" s="3">
+        <v>500</v>
+      </c>
+      <c r="V48" s="3">
+        <v>500</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3381,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3523,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3324,29 +3564,29 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -3354,8 +3594,14 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3665,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F54" s="3">
         <v>2400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
         <v>100</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
       <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
         <v>500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>600</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,20 +3794,22 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>900</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
@@ -3590,58 +3852,64 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V57" s="3" t="s">
-        <v>4</v>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
       </c>
       <c r="W57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F58" s="3">
         <v>4900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>4500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>4300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>900</v>
-      </c>
-      <c r="J58" s="3">
-        <v>800</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1100</v>
       </c>
       <c r="L58" s="3">
         <v>800</v>
       </c>
       <c r="M58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N58" s="3">
+        <v>800</v>
+      </c>
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>200</v>
-      </c>
-      <c r="O58" s="3">
-        <v>100</v>
-      </c>
-      <c r="P58" s="3">
-        <v>100</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
@@ -3655,147 +3923,165 @@
       <c r="T58" s="3">
         <v>100</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
+      <c r="U58" s="3">
+        <v>100</v>
+      </c>
+      <c r="V58" s="3">
+        <v>100</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F59" s="3">
         <v>9300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>5600</v>
-      </c>
-      <c r="F59" s="3">
-        <v>3200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>2600</v>
       </c>
       <c r="H59" s="3">
         <v>3200</v>
       </c>
       <c r="I59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K59" s="3">
         <v>4900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>100</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
       <c r="T59" s="3">
         <v>0</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F60" s="3">
         <v>14600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>10100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>7500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
-      </c>
-      <c r="R60" s="3">
-        <v>100</v>
-      </c>
-      <c r="S60" s="3">
-        <v>100</v>
       </c>
       <c r="T60" s="3">
         <v>100</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V60" s="3" t="s">
-        <v>4</v>
+      <c r="U60" s="3">
+        <v>100</v>
+      </c>
+      <c r="V60" s="3">
+        <v>100</v>
       </c>
       <c r="W60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4145,14 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3903,29 +4195,35 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3">
-        <v>200</v>
-      </c>
-      <c r="S62" s="3">
-        <v>200</v>
+        <v>0</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T62" s="3">
         <v>200</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>4</v>
+      <c r="U62" s="3">
+        <v>200</v>
+      </c>
+      <c r="V62" s="3">
+        <v>200</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4429,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F66" s="3">
         <v>14600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>10100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>200</v>
-      </c>
-      <c r="R66" s="3">
-        <v>300</v>
-      </c>
-      <c r="S66" s="3">
-        <v>300</v>
       </c>
       <c r="T66" s="3">
         <v>300</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V66" s="3" t="s">
-        <v>4</v>
+      <c r="U66" s="3">
+        <v>300</v>
+      </c>
+      <c r="V66" s="3">
+        <v>300</v>
       </c>
       <c r="W66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,34 +4669,40 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>200</v>
+      </c>
+      <c r="E70" s="3">
+        <v>200</v>
+      </c>
+      <c r="F70" s="3">
         <v>300</v>
-      </c>
-      <c r="E70" s="3">
-        <v>300</v>
-      </c>
-      <c r="F70" s="3">
-        <v>200</v>
       </c>
       <c r="G70" s="3">
         <v>300</v>
       </c>
       <c r="H70" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I70" s="3">
         <v>300</v>
       </c>
       <c r="J70" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K70" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L70" s="3">
         <v>100</v>
@@ -4378,10 +4714,10 @@
         <v>100</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -4404,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4811,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-30900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-27800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-22600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-17800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-17100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-16900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-11000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-10100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-7800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-7100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-5300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-3700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-3000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-2600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-2500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-2300</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5095,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-12500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-10200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-6800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-4300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-5600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-3400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-5300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-200</v>
       </c>
       <c r="Q76" s="3">
         <v>-200</v>
       </c>
       <c r="R76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T76" s="3">
         <v>200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>300</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5237,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-5200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-4800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-200</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
       <c r="U81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5415,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5072,20 +5470,26 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W83" s="3">
         <v>100</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,49 +5837,55 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>-400</v>
       </c>
       <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
-        <v>-100</v>
-      </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
@@ -5466,16 +5900,22 @@
         <v>-100</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5939,10 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +6006,14 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,16 +6148,22 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -5712,22 +6172,22 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -5759,8 +6219,14 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,58 +6530,64 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>2400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
-      </c>
-      <c r="K100" s="3">
-        <v>400</v>
-      </c>
-      <c r="L100" s="3">
-        <v>200</v>
       </c>
       <c r="M100" s="3">
         <v>400</v>
       </c>
       <c r="N100" s="3">
+        <v>200</v>
+      </c>
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
       </c>
       <c r="R100" s="3">
+        <v>200</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>100</v>
@@ -6104,13 +6596,19 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,38 +6672,44 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
-      </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>100</v>
       </c>
       <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -6225,18 +6729,24 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MMMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
   <si>
     <t>MMMM</t>
   </si>
@@ -774,7 +774,7 @@
         <v>18100</v>
       </c>
       <c r="E8" s="3">
-        <v>17700</v>
+        <v>18100</v>
       </c>
       <c r="F8" s="3">
         <v>12000</v>
@@ -916,7 +916,7 @@
         <v>2200</v>
       </c>
       <c r="E10" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="F10" s="3">
         <v>700</v>
@@ -1318,8 +1318,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>17100</v>
       </c>
       <c r="E17" s="3">
         <v>16300</v>
@@ -1389,11 +1389,11 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>1000</v>
       </c>
       <c r="E18" s="3">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="F18" s="3">
         <v>-700</v>
@@ -1487,11 +1487,11 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>800</v>
       </c>
       <c r="E20" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F20" s="3">
         <v>-1900</v>
@@ -1562,7 +1562,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1704,7 +1704,7 @@
         <v>1800</v>
       </c>
       <c r="E23" s="3">
-        <v>3400</v>
+        <v>3800</v>
       </c>
       <c r="F23" s="3">
         <v>-3200</v>
@@ -1913,11 +1913,11 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>1800</v>
       </c>
       <c r="E26" s="3">
-        <v>3400</v>
+        <v>3800</v>
       </c>
       <c r="F26" s="3">
         <v>-3200</v>
@@ -1984,11 +1984,11 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>1800</v>
       </c>
       <c r="E27" s="3">
-        <v>3400</v>
+        <v>3800</v>
       </c>
       <c r="F27" s="3">
         <v>-3200</v>
@@ -2339,11 +2339,11 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>-800</v>
       </c>
       <c r="E32" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="F32" s="3">
         <v>1900</v>
@@ -2410,11 +2410,11 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>1800</v>
       </c>
       <c r="E33" s="3">
-        <v>3400</v>
+        <v>3800</v>
       </c>
       <c r="F33" s="3">
         <v>-3200</v>
@@ -2552,11 +2552,11 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>1800</v>
       </c>
       <c r="E35" s="3">
-        <v>3400</v>
+        <v>3800</v>
       </c>
       <c r="F35" s="3">
         <v>-3200</v>
@@ -2895,8 +2895,8 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>5300</v>
       </c>
       <c r="E43" s="3">
         <v>3500</v>
@@ -3037,8 +3037,8 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>200</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>4</v>
@@ -3535,25 +3535,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>4800</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3944,7 +3944,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3400</v>
+        <v>9000</v>
       </c>
       <c r="E59" s="3">
         <v>4200</v>
@@ -5324,11 +5324,11 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>1800</v>
       </c>
       <c r="E81" s="3">
-        <v>3400</v>
+        <v>3800</v>
       </c>
       <c r="F81" s="3">
         <v>-3200</v>
@@ -5848,8 +5848,8 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
+      <c r="D89" s="3">
+        <v>100</v>
       </c>
       <c r="E89" s="3">
         <v>-1400</v>
@@ -6541,8 +6541,8 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>-200</v>
       </c>
       <c r="E100" s="3">
         <v>1600</v>
@@ -6683,8 +6683,8 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
+      <c r="D102" s="3">
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>100</v>

--- a/AAII_Financials/Quarterly/MMMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>MMMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,147 +665,151 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18100</v>
+        <v>18200</v>
       </c>
       <c r="E8" s="3">
         <v>18100</v>
       </c>
       <c r="F8" s="3">
+        <v>18100</v>
+      </c>
+      <c r="G8" s="3">
         <v>12000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
@@ -836,49 +840,52 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E9" s="3">
         <v>15900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5100</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
@@ -895,61 +902,64 @@
       <c r="U9" s="3">
         <v>0</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W9" s="3">
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3">
         <v>100</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E10" s="3">
         <v>2200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>-300</v>
-      </c>
-      <c r="L10" s="3">
-        <v>200</v>
       </c>
       <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="N10" s="3">
+        <v>200</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
@@ -966,20 +976,23 @@
       <c r="U10" s="3">
         <v>0</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3">
         <v>-100</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1022,12 +1036,12 @@
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3">
         <v>1600</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1161,24 +1181,24 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>2700</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
         <v>1300</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1189,25 +1209,25 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>500</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1218,8 +1238,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,68 +1339,69 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E17" s="3">
         <v>17100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>16300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6000</v>
-      </c>
-      <c r="N17" s="3">
-        <v>500</v>
       </c>
       <c r="O17" s="3">
         <v>500</v>
       </c>
       <c r="P17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
-      </c>
-      <c r="S17" s="3">
-        <v>100</v>
       </c>
       <c r="T17" s="3">
         <v>100</v>
       </c>
       <c r="U17" s="3">
+        <v>100</v>
+      </c>
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
       <c r="W17" s="3">
         <v>0</v>
       </c>
@@ -1384,8 +1411,11 @@
       <c r="Y17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1393,59 +1423,59 @@
         <v>1000</v>
       </c>
       <c r="E18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="3">
         <v>1800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-100</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
       <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
         <v>0</v>
       </c>
@@ -1455,8 +1485,11 @@
       <c r="Y18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,53 +1515,54 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1600</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1553,20 +1587,23 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>4400</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1597,15 +1634,15 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1624,53 +1661,56 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>500</v>
-      </c>
-      <c r="K22" s="3">
-        <v>400</v>
       </c>
       <c r="L22" s="3">
         <v>400</v>
       </c>
       <c r="M22" s="3">
+        <v>400</v>
+      </c>
+      <c r="N22" s="3">
         <v>700</v>
-      </c>
-      <c r="N22" s="3">
-        <v>400</v>
       </c>
       <c r="O22" s="3">
         <v>400</v>
       </c>
       <c r="P22" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
@@ -1695,79 +1735,85 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-100</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
       <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
         <v>0</v>
       </c>
       <c r="Y23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1883,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
         <v>0</v>
       </c>
       <c r="Y26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
       <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
         <v>0</v>
       </c>
       <c r="Y27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,53 +2401,56 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1600</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2405,79 +2475,85 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-100</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
       <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
         <v>0</v>
       </c>
       <c r="Y33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-100</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
       <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
         <v>0</v>
       </c>
       <c r="Y35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,47 +2834,48 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
-      </c>
-      <c r="J41" s="3">
-        <v>500</v>
       </c>
       <c r="K41" s="3">
         <v>500</v>
       </c>
       <c r="L41" s="3">
+        <v>500</v>
+      </c>
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -2808,19 +2895,22 @@
         <v>0</v>
       </c>
       <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
         <v>100</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,25 +2980,28 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E43" s="3">
         <v>5300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3">
-        <v>100</v>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -2916,8 +3009,8 @@
       <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3">
+        <v>100</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
@@ -2934,8 +3027,8 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2961,8 +3054,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,19 +3128,22 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -3052,17 +3151,17 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
@@ -3076,8 +3175,8 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3085,17 +3184,17 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
+      <c r="T45" s="3">
+        <v>0</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>4</v>
@@ -3103,47 +3202,50 @@
       <c r="Y45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E46" s="3">
         <v>6400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
@@ -3163,42 +3265,45 @@
         <v>0</v>
       </c>
       <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
         <v>100</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3">
         <v>100</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>4</v>
@@ -3215,8 +3320,8 @@
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -3245,8 +3350,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3295,11 +3403,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T48" s="3">
-        <v>500</v>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U48" s="3">
         <v>500</v>
@@ -3307,8 +3415,8 @@
       <c r="V48" s="3">
         <v>500</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
+      <c r="W48" s="3">
+        <v>500</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>4</v>
@@ -3316,8 +3424,11 @@
       <c r="Y48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,16 +3646,19 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>4800</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
+      <c r="E52" s="3">
+        <v>4800</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>4</v>
@@ -3555,8 +3675,8 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -3570,15 +3690,15 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3">
         <v>100</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3588,8 +3708,8 @@
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -3600,8 +3720,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E54" s="3">
         <v>11200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
         <v>100</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
       <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
         <v>100</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
       <c r="S54" s="3">
         <v>0</v>
       </c>
       <c r="T54" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="U54" s="3">
         <v>500</v>
       </c>
       <c r="V54" s="3">
+        <v>500</v>
+      </c>
+      <c r="W54" s="3">
         <v>600</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3926,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3808,11 +3939,11 @@
         <v>900</v>
       </c>
       <c r="F57" s="3">
+        <v>900</v>
+      </c>
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
@@ -3858,8 +3989,8 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>4</v>
+      <c r="W57" s="3">
+        <v>0</v>
       </c>
       <c r="X57" s="3" t="s">
         <v>4</v>
@@ -3867,52 +3998,55 @@
       <c r="Y57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E58" s="3">
         <v>6300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>200</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
@@ -3929,8 +4063,8 @@
       <c r="V58" s="3">
         <v>100</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>4</v>
+      <c r="W58" s="3">
+        <v>100</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>4</v>
@@ -3938,70 +4072,73 @@
       <c r="Y58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E59" s="3">
         <v>9000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>200</v>
       </c>
       <c r="R59" s="3">
         <v>200</v>
       </c>
       <c r="S59" s="3">
+        <v>200</v>
+      </c>
+      <c r="T59" s="3">
         <v>100</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
       <c r="U59" s="3">
         <v>0</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
+      <c r="W59" s="3">
+        <v>0</v>
       </c>
       <c r="X59" s="3" t="s">
         <v>4</v>
@@ -4009,61 +4146,64 @@
       <c r="Y59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E60" s="3">
         <v>16200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
-      </c>
-      <c r="R60" s="3">
-        <v>200</v>
       </c>
       <c r="S60" s="3">
         <v>200</v>
       </c>
       <c r="T60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U60" s="3">
         <v>100</v>
@@ -4071,8 +4211,8 @@
       <c r="V60" s="3">
         <v>100</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>4</v>
+      <c r="W60" s="3">
+        <v>100</v>
       </c>
       <c r="X60" s="3" t="s">
         <v>4</v>
@@ -4080,8 +4220,11 @@
       <c r="Y60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,8 +4294,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4201,11 +4347,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T62" s="3">
-        <v>200</v>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U62" s="3">
         <v>200</v>
@@ -4213,8 +4359,8 @@
       <c r="V62" s="3">
         <v>200</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>4</v>
+      <c r="W62" s="3">
+        <v>200</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>4</v>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,61 +4590,64 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E66" s="3">
         <v>16200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>300</v>
-      </c>
-      <c r="R66" s="3">
-        <v>200</v>
       </c>
       <c r="S66" s="3">
         <v>200</v>
       </c>
       <c r="T66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U66" s="3">
         <v>300</v>
@@ -4497,8 +4655,8 @@
       <c r="V66" s="3">
         <v>300</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>4</v>
+      <c r="W66" s="3">
+        <v>300</v>
       </c>
       <c r="X66" s="3" t="s">
         <v>4</v>
@@ -4506,8 +4664,11 @@
       <c r="Y66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4687,16 +4855,16 @@
         <v>200</v>
       </c>
       <c r="F70" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G70" s="3">
         <v>300</v>
       </c>
       <c r="H70" s="3">
+        <v>300</v>
+      </c>
+      <c r="I70" s="3">
         <v>200</v>
-      </c>
-      <c r="I70" s="3">
-        <v>300</v>
       </c>
       <c r="J70" s="3">
         <v>300</v>
@@ -4705,7 +4873,7 @@
         <v>300</v>
       </c>
       <c r="L70" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M70" s="3">
         <v>100</v>
@@ -4720,7 +4888,7 @@
         <v>100</v>
       </c>
       <c r="Q70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R70" s="3">
         <v>0</v>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-23700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-27600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-30900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-27800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-22600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-17800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-17100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-10100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-7800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-7100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2300</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,52 +5284,55 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-8100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-12500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-10200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-6800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-200</v>
       </c>
       <c r="R76" s="3">
         <v>-200</v>
@@ -5155,25 +5341,28 @@
         <v>-200</v>
       </c>
       <c r="T76" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="U76" s="3">
         <v>200</v>
       </c>
       <c r="V76" s="3">
+        <v>200</v>
+      </c>
+      <c r="W76" s="3">
         <v>300</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-100</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
       <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
         <v>0</v>
       </c>
       <c r="Y81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5476,20 +5675,23 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X83" s="3">
         <v>100</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,52 +6057,55 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E89" s="3">
         <v>100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-600</v>
       </c>
       <c r="K89" s="3">
         <v>-600</v>
       </c>
       <c r="L89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-400</v>
       </c>
       <c r="P89" s="3">
         <v>-400</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
@@ -5906,7 +6123,7 @@
         <v>-100</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X89" s="3">
         <v>0</v>
@@ -5914,8 +6131,11 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6161,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6012,8 +6233,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,20 +6381,23 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -6178,19 +6408,19 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -6225,8 +6455,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +6779,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>2400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
-      </c>
-      <c r="O100" s="3">
-        <v>400</v>
       </c>
       <c r="P100" s="3">
         <v>400</v>
       </c>
       <c r="Q100" s="3">
+        <v>400</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
-      </c>
-      <c r="S100" s="3">
-        <v>100</v>
       </c>
       <c r="T100" s="3">
         <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,28 +6927,31 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
-      </c>
-      <c r="I102" s="3">
-        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>100</v>
@@ -6708,11 +6960,11 @@
         <v>100</v>
       </c>
       <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -6735,18 +6987,21 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MMMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
   <si>
     <t>MMMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,157 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
         <v>18200</v>
-      </c>
-      <c r="E8" s="3">
-        <v>18100</v>
       </c>
       <c r="F8" s="3">
         <v>18100</v>
       </c>
       <c r="G8" s="3">
+        <v>18100</v>
+      </c>
+      <c r="H8" s="3">
         <v>12000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
@@ -843,52 +846,55 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E9" s="3">
         <v>15600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5100</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
@@ -905,64 +911,67 @@
       <c r="V9" s="3">
         <v>0</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X9" s="3">
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3">
         <v>100</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E10" s="3">
         <v>2600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>-300</v>
-      </c>
-      <c r="M10" s="3">
-        <v>200</v>
       </c>
       <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
+      <c r="O10" s="3">
+        <v>200</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R10" s="3">
         <v>0</v>
@@ -979,20 +988,23 @@
       <c r="V10" s="3">
         <v>0</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X10" s="3">
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3">
         <v>-100</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1039,12 +1052,12 @@
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
         <v>1600</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1093,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1184,24 +1203,24 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>2700</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>1300</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1212,25 +1231,25 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>500</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1241,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,71 +1365,72 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E17" s="3">
         <v>17200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>17100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>16300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6000</v>
-      </c>
-      <c r="O17" s="3">
-        <v>500</v>
       </c>
       <c r="P17" s="3">
         <v>500</v>
       </c>
       <c r="Q17" s="3">
+        <v>500</v>
+      </c>
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
-      </c>
-      <c r="T17" s="3">
-        <v>100</v>
       </c>
       <c r="U17" s="3">
         <v>100</v>
       </c>
       <c r="V17" s="3">
+        <v>100</v>
+      </c>
+      <c r="W17" s="3">
         <v>200</v>
       </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
       <c r="X17" s="3">
         <v>0</v>
       </c>
@@ -1414,71 +1440,74 @@
       <c r="Z17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1000</v>
+        <v>-7600</v>
       </c>
       <c r="E18" s="3">
         <v>1000</v>
       </c>
       <c r="F18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G18" s="3">
         <v>1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-100</v>
       </c>
       <c r="U18" s="3">
         <v>-100</v>
       </c>
       <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
         <v>0</v>
       </c>
@@ -1488,8 +1517,11 @@
       <c r="Z18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,56 +1548,57 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-2500</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1600</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1590,8 +1623,11 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1601,12 +1637,12 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>4400</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1637,15 +1673,15 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1664,56 +1700,59 @@
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>700</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>500</v>
-      </c>
-      <c r="L22" s="3">
-        <v>400</v>
       </c>
       <c r="M22" s="3">
         <v>400</v>
       </c>
       <c r="N22" s="3">
+        <v>400</v>
+      </c>
+      <c r="O22" s="3">
         <v>700</v>
-      </c>
-      <c r="O22" s="3">
-        <v>400</v>
       </c>
       <c r="P22" s="3">
         <v>400</v>
       </c>
       <c r="Q22" s="3">
+        <v>400</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
@@ -1738,82 +1777,88 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E23" s="3">
         <v>1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-100</v>
       </c>
       <c r="U23" s="3">
         <v>-100</v>
       </c>
       <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
         <v>0</v>
       </c>
       <c r="Z23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1886,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E26" s="3">
         <v>1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-100</v>
       </c>
       <c r="U26" s="3">
         <v>-100</v>
       </c>
       <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
         <v>0</v>
       </c>
       <c r="Z26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E27" s="3">
         <v>1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-100</v>
       </c>
       <c r="U27" s="3">
         <v>-100</v>
       </c>
       <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
         <v>0</v>
       </c>
       <c r="Z27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,56 +2470,59 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1600</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2478,82 +2547,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E33" s="3">
         <v>1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-100</v>
       </c>
       <c r="U33" s="3">
         <v>-100</v>
       </c>
       <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3">
         <v>0</v>
       </c>
       <c r="Z33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E35" s="3">
         <v>1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-100</v>
       </c>
       <c r="U35" s="3">
         <v>-100</v>
       </c>
       <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
       <c r="Y35" s="3">
         <v>0</v>
       </c>
       <c r="Z35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,8 +2920,9 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2844,41 +2930,41 @@
         <v>800</v>
       </c>
       <c r="E41" s="3">
+        <v>800</v>
+      </c>
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
-      </c>
-      <c r="K41" s="3">
-        <v>500</v>
       </c>
       <c r="L41" s="3">
         <v>500</v>
       </c>
       <c r="M41" s="3">
+        <v>500</v>
+      </c>
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
@@ -2898,19 +2984,22 @@
         <v>0</v>
       </c>
       <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
         <v>100</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,28 +3072,31 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E43" s="3">
         <v>6500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3">
-        <v>100</v>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -3012,8 +3104,8 @@
       <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>100</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
@@ -3030,8 +3122,8 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -3057,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,22 +3226,25 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="F45" s="3">
+        <v>200</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -3154,17 +3252,17 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
@@ -3178,8 +3276,8 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -3187,17 +3285,17 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
+      <c r="U45" s="3">
+        <v>0</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
-      <c r="X45" s="3" t="s">
-        <v>4</v>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>4</v>
@@ -3205,50 +3303,53 @@
       <c r="Z45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E46" s="3">
         <v>7500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
@@ -3268,19 +3369,22 @@
         <v>0</v>
       </c>
       <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
         <v>100</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3290,23 +3394,23 @@
       <c r="E47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3">
         <v>100</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
@@ -3323,8 +3427,8 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -3353,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3406,11 +3513,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U48" s="3">
-        <v>500</v>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V48" s="3">
         <v>500</v>
@@ -3418,8 +3525,8 @@
       <c r="W48" s="3">
         <v>500</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
+      <c r="X48" s="3">
+        <v>500</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>4</v>
@@ -3427,8 +3534,11 @@
       <c r="Z48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3501,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,19 +3765,22 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>4800</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E52" s="3">
         <v>4800</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="F52" s="3">
+        <v>4800</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
@@ -3678,8 +3797,8 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -3693,15 +3812,15 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" s="3">
         <v>100</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3711,8 +3830,8 @@
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
+      <c r="W52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
@@ -3723,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E54" s="3">
         <v>12300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
         <v>100</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
       <c r="Q54" s="3">
         <v>0</v>
       </c>
       <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
         <v>100</v>
       </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
       <c r="T54" s="3">
         <v>0</v>
       </c>
       <c r="U54" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="V54" s="3">
         <v>500</v>
       </c>
       <c r="W54" s="3">
+        <v>500</v>
+      </c>
+      <c r="X54" s="3">
         <v>600</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,13 +4056,14 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="E57" s="3">
         <v>900</v>
@@ -3942,11 +4072,11 @@
         <v>900</v>
       </c>
       <c r="G57" s="3">
+        <v>900</v>
+      </c>
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
@@ -3992,8 +4122,8 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>4</v>
+      <c r="X57" s="3">
+        <v>0</v>
       </c>
       <c r="Y57" s="3" t="s">
         <v>4</v>
@@ -4001,8 +4131,11 @@
       <c r="Z57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4010,46 +4143,46 @@
         <v>4900</v>
       </c>
       <c r="E58" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F58" s="3">
         <v>6300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>200</v>
-      </c>
-      <c r="R58" s="3">
-        <v>100</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
@@ -4066,8 +4199,8 @@
       <c r="W58" s="3">
         <v>100</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>4</v>
+      <c r="X58" s="3">
+        <v>100</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>4</v>
@@ -4075,73 +4208,76 @@
       <c r="Z58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E59" s="3">
         <v>9600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1500</v>
-      </c>
-      <c r="R59" s="3">
-        <v>200</v>
       </c>
       <c r="S59" s="3">
         <v>200</v>
       </c>
       <c r="T59" s="3">
+        <v>200</v>
+      </c>
+      <c r="U59" s="3">
         <v>100</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
       <c r="V59" s="3">
         <v>0</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>4</v>
+      <c r="X59" s="3">
+        <v>0</v>
       </c>
       <c r="Y59" s="3" t="s">
         <v>4</v>
@@ -4149,64 +4285,67 @@
       <c r="Z59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E60" s="3">
         <v>15500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>14600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
-      </c>
-      <c r="S60" s="3">
-        <v>200</v>
       </c>
       <c r="T60" s="3">
         <v>200</v>
       </c>
       <c r="U60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V60" s="3">
         <v>100</v>
@@ -4214,8 +4353,8 @@
       <c r="W60" s="3">
         <v>100</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>4</v>
+      <c r="X60" s="3">
+        <v>100</v>
       </c>
       <c r="Y60" s="3" t="s">
         <v>4</v>
@@ -4223,8 +4362,11 @@
       <c r="Z60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4297,31 +4439,34 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -4350,11 +4495,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U62" s="3">
-        <v>200</v>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V62" s="3">
         <v>200</v>
@@ -4362,8 +4507,8 @@
       <c r="W62" s="3">
         <v>200</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>4</v>
+      <c r="X62" s="3">
+        <v>200</v>
       </c>
       <c r="Y62" s="3" t="s">
         <v>4</v>
@@ -4371,8 +4516,11 @@
       <c r="Z62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,64 +4747,67 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E66" s="3">
         <v>15500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>300</v>
-      </c>
-      <c r="S66" s="3">
-        <v>200</v>
       </c>
       <c r="T66" s="3">
         <v>200</v>
       </c>
       <c r="U66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V66" s="3">
         <v>300</v>
@@ -4658,8 +4815,8 @@
       <c r="W66" s="3">
         <v>300</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>4</v>
+      <c r="X66" s="3">
+        <v>300</v>
       </c>
       <c r="Y66" s="3" t="s">
         <v>4</v>
@@ -4667,8 +4824,11 @@
       <c r="Z66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4858,16 +5025,16 @@
         <v>200</v>
       </c>
       <c r="G70" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H70" s="3">
         <v>300</v>
       </c>
       <c r="I70" s="3">
+        <v>300</v>
+      </c>
+      <c r="J70" s="3">
         <v>200</v>
-      </c>
-      <c r="J70" s="3">
-        <v>300</v>
       </c>
       <c r="K70" s="3">
         <v>300</v>
@@ -4876,7 +5043,7 @@
         <v>300</v>
       </c>
       <c r="M70" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N70" s="3">
         <v>100</v>
@@ -4891,7 +5058,7 @@
         <v>100</v>
       </c>
       <c r="R70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S70" s="3">
         <v>0</v>
@@ -4917,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-22700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-23700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-27600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-30900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-27800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-22600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-17800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-17100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-16900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-7800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2300</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,55 +5469,58 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-8100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-12500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-10200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-6800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-5300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-200</v>
       </c>
       <c r="S76" s="3">
         <v>-200</v>
@@ -5344,25 +5529,28 @@
         <v>-200</v>
       </c>
       <c r="U76" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="V76" s="3">
         <v>200</v>
       </c>
       <c r="W76" s="3">
+        <v>200</v>
+      </c>
+      <c r="X76" s="3">
         <v>300</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E81" s="3">
         <v>1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-100</v>
       </c>
       <c r="U81" s="3">
         <v>-100</v>
       </c>
       <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
       <c r="Y81" s="3">
         <v>0</v>
       </c>
       <c r="Z81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5678,20 +5876,23 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y83" s="3">
         <v>100</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,55 +6273,58 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-600</v>
       </c>
       <c r="L89" s="3">
         <v>-600</v>
       </c>
       <c r="M89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-400</v>
       </c>
       <c r="Q89" s="3">
         <v>-400</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
@@ -6126,7 +6342,7 @@
         <v>-100</v>
       </c>
       <c r="X89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y89" s="3">
         <v>0</v>
@@ -6134,8 +6350,11 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6236,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6395,12 +6624,12 @@
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -6411,19 +6640,19 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -6458,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,82 +7024,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>2400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
-      </c>
-      <c r="P100" s="3">
-        <v>400</v>
       </c>
       <c r="Q100" s="3">
         <v>400</v>
       </c>
       <c r="R100" s="3">
+        <v>400</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
-      </c>
-      <c r="T100" s="3">
-        <v>100</v>
       </c>
       <c r="U100" s="3">
         <v>100</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,31 +7178,34 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
-      </c>
-      <c r="J102" s="3">
-        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>100</v>
@@ -6963,11 +7214,11 @@
         <v>100</v>
       </c>
       <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -6990,18 +7241,21 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MMMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
   <si>
     <t>MMMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,163 +665,171 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>18200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>18100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>18100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>12000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>11100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>10600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>9100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>9000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>7300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>5300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
@@ -849,58 +857,64 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>6000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>15600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>15900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>15200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>11300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>11200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>9500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>8700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>9000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>7600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>4500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>5100</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0</v>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
@@ -914,70 +928,76 @@
       <c r="W9" s="3">
         <v>0</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>4</v>
+      <c r="X9" s="3">
+        <v>0</v>
       </c>
       <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3">
         <v>100</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>-5600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>-300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T10" s="3">
         <v>0</v>
@@ -991,20 +1011,26 @@
       <c r="W10" s="3">
         <v>0</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>4</v>
+      <c r="X10" s="3">
+        <v>0</v>
       </c>
       <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3">
         <v>-100</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1058,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1055,15 +1083,15 @@
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3">
         <v>1600</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1109,8 +1137,14 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1220,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1206,27 +1246,27 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>2700</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>1300</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1234,28 +1274,28 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>500</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
@@ -1263,8 +1303,14 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1386,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1418,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>8000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>17200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>17100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>16300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>12700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>12500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>14700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>9200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>9600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>10100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>6000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>200</v>
       </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>0</v>
-      </c>
       <c r="Z17" s="3">
         <v>0</v>
       </c>
       <c r="AA17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-7600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-4100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
       <c r="Z18" s="3">
         <v>0</v>
       </c>
       <c r="AA18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,62 +1615,64 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2500</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>2700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-3400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1600</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1626,8 +1694,14 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1640,15 +1714,15 @@
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>4400</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1676,18 +1750,18 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1703,31 +1777,37 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>500</v>
       </c>
       <c r="K22" s="3">
         <v>400</v>
@@ -1739,26 +1819,26 @@
         <v>400</v>
       </c>
       <c r="N22" s="3">
+        <v>500</v>
+      </c>
+      <c r="O22" s="3">
         <v>400</v>
-      </c>
-      <c r="O22" s="3">
-        <v>700</v>
       </c>
       <c r="P22" s="3">
         <v>400</v>
       </c>
       <c r="Q22" s="3">
+        <v>700</v>
+      </c>
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
+        <v>400</v>
+      </c>
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
@@ -1780,85 +1860,97 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-10800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>3800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-5200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-4800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-4300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-200</v>
       </c>
       <c r="X23" s="3">
         <v>-100</v>
       </c>
       <c r="Y23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Z23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +2026,14 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2109,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-10800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>3800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-5200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-4800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-4300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-200</v>
       </c>
       <c r="X26" s="3">
         <v>-100</v>
       </c>
       <c r="Y26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Z26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-10800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>3800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-5200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-4800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-4300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-200</v>
       </c>
       <c r="X27" s="3">
         <v>-100</v>
       </c>
       <c r="Y27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Z27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2358,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2441,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2524,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,62 +2607,68 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>2500</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-2700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>3400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1600</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2550,85 +2690,97 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-10800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>3800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-5200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-4800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-4300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-200</v>
       </c>
       <c r="X33" s="3">
         <v>-100</v>
       </c>
       <c r="Y33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Z33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2856,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-10800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>3800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-5200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-4800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-4300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-200</v>
       </c>
       <c r="X35" s="3">
         <v>-100</v>
       </c>
       <c r="Y35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Z35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3062,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,56 +3093,58 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
@@ -2987,19 +3161,25 @@
         <v>0</v>
       </c>
       <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
         <v>100</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3255,14 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3084,34 +3270,34 @@
         <v>9700</v>
       </c>
       <c r="E43" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F43" s="3">
+        <v>9700</v>
+      </c>
+      <c r="G43" s="3">
         <v>6500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>5300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>3500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>2100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3">
-        <v>100</v>
-      </c>
-      <c r="K43" s="3">
-        <v>100</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
+        <v>100</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
@@ -3125,11 +3311,11 @@
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -3152,8 +3338,14 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3421,14 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3238,37 +3436,37 @@
         <v>300</v>
       </c>
       <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
+        <v>300</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
@@ -3279,83 +3477,89 @@
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X45" s="3">
-        <v>0</v>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>4</v>
+      <c r="Z45" s="3">
+        <v>0</v>
       </c>
       <c r="AA45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F46" s="3">
         <v>10700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>7500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>6400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
@@ -3372,51 +3576,57 @@
         <v>0</v>
       </c>
       <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
         <v>100</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3">
         <v>100</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
@@ -3430,11 +3640,11 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
-      </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3460,8 +3670,14 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3516,29 +3732,35 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
+      <c r="U48" s="3">
+        <v>0</v>
       </c>
       <c r="V48" s="3">
-        <v>500</v>
-      </c>
-      <c r="W48" s="3">
-        <v>500</v>
+        <v>0</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X48" s="3">
         <v>500</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z48" s="3" t="s">
-        <v>4</v>
+      <c r="Y48" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>500</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3836,14 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3919,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,26 +4002,32 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3">
         <v>4800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>4800</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3800,11 +4040,11 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3815,29 +4055,29 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="3">
         <v>100</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>0</v>
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z52" s="3">
         <v>0</v>
@@ -3845,8 +4085,14 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4168,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F54" s="3">
         <v>10700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>12300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>11200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
         <v>100</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
       <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
         <v>100</v>
       </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
-      <c r="U54" s="3">
-        <v>0</v>
-      </c>
       <c r="V54" s="3">
+        <v>0</v>
+      </c>
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="3">
         <v>500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>600</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4286,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,32 +4317,34 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>1200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>900</v>
-      </c>
-      <c r="F57" s="3">
-        <v>900</v>
       </c>
       <c r="G57" s="3">
         <v>900</v>
       </c>
       <c r="H57" s="3">
+        <v>900</v>
+      </c>
+      <c r="I57" s="3">
+        <v>900</v>
+      </c>
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
@@ -4125,70 +4387,76 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z57" s="3" t="s">
-        <v>4</v>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>0</v>
       </c>
       <c r="AA57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="E58" s="3">
         <v>4900</v>
       </c>
       <c r="F58" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G58" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H58" s="3">
         <v>6300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>6800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>4900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>4500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>900</v>
-      </c>
-      <c r="N58" s="3">
-        <v>800</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1100</v>
       </c>
       <c r="P58" s="3">
         <v>800</v>
       </c>
       <c r="Q58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R58" s="3">
+        <v>800</v>
+      </c>
+      <c r="S58" s="3">
         <v>400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>200</v>
-      </c>
-      <c r="S58" s="3">
-        <v>100</v>
-      </c>
-      <c r="T58" s="3">
-        <v>100</v>
       </c>
       <c r="U58" s="3">
         <v>100</v>
@@ -4202,17 +4470,23 @@
       <c r="X58" s="3">
         <v>100</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z58" s="3" t="s">
-        <v>4</v>
+      <c r="Y58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>100</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4220,153 +4494,165 @@
         <v>4000</v>
       </c>
       <c r="E59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G59" s="3">
         <v>9600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>9000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>9300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>5600</v>
-      </c>
-      <c r="J59" s="3">
-        <v>3200</v>
-      </c>
-      <c r="K59" s="3">
-        <v>2600</v>
       </c>
       <c r="L59" s="3">
         <v>3200</v>
       </c>
       <c r="M59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="O59" s="3">
         <v>4900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>100</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
       <c r="X59" s="3">
         <v>0</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z59" s="3" t="s">
-        <v>4</v>
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>0</v>
       </c>
       <c r="AA59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F60" s="3">
         <v>10200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>15500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>16200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>11800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>14600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>10100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>5800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>5200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>200</v>
-      </c>
-      <c r="V60" s="3">
-        <v>100</v>
-      </c>
-      <c r="W60" s="3">
-        <v>100</v>
       </c>
       <c r="X60" s="3">
         <v>100</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z60" s="3" t="s">
-        <v>4</v>
+      <c r="Y60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>100</v>
       </c>
       <c r="AA60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,8 +4728,14 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4468,11 +4760,11 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -4498,29 +4790,35 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
+      <c r="U62" s="3">
+        <v>0</v>
       </c>
       <c r="V62" s="3">
-        <v>200</v>
-      </c>
-      <c r="W62" s="3">
-        <v>200</v>
+        <v>0</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X62" s="3">
         <v>200</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z62" s="3" t="s">
-        <v>4</v>
+      <c r="Y62" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>200</v>
       </c>
       <c r="AA62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4894,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4977,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5060,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F66" s="3">
         <v>10200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>15500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>16200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>11800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>14600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>10100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>5800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>200</v>
-      </c>
-      <c r="V66" s="3">
-        <v>300</v>
-      </c>
-      <c r="W66" s="3">
-        <v>300</v>
       </c>
       <c r="X66" s="3">
         <v>300</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z66" s="3" t="s">
-        <v>4</v>
+      <c r="Y66" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>300</v>
       </c>
       <c r="AA66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5178,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5257,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5340,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5028,28 +5364,28 @@
         <v>200</v>
       </c>
       <c r="H70" s="3">
+        <v>200</v>
+      </c>
+      <c r="I70" s="3">
+        <v>200</v>
+      </c>
+      <c r="J70" s="3">
         <v>300</v>
-      </c>
-      <c r="I70" s="3">
-        <v>300</v>
-      </c>
-      <c r="J70" s="3">
-        <v>200</v>
       </c>
       <c r="K70" s="3">
         <v>300</v>
       </c>
       <c r="L70" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M70" s="3">
         <v>300</v>
       </c>
       <c r="N70" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O70" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P70" s="3">
         <v>100</v>
@@ -5061,10 +5397,10 @@
         <v>100</v>
       </c>
       <c r="S70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U70" s="3">
         <v>0</v>
@@ -5087,8 +5423,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5506,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-35000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="G72" s="3">
         <v>-22700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-23700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-27600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-30900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-27800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-22600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-17800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-17100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-16900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-11000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-10100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-7100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-5300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-3700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-3300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-3000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-2600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-2500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5672,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5755,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5838,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>200</v>
+      </c>
+      <c r="E76" s="3">
         <v>300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>300</v>
+      </c>
+      <c r="G76" s="3">
         <v>-3400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-5200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-8100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-12500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-10200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-6800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-3900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-4300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-5600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-3400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-5300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-2700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-200</v>
       </c>
       <c r="U76" s="3">
         <v>-200</v>
       </c>
       <c r="V76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X76" s="3">
         <v>200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>300</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6004,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-10800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>3800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-5200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-4800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-4300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-200</v>
       </c>
       <c r="X81" s="3">
         <v>-100</v>
       </c>
       <c r="Y81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Z81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6210,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5879,20 +6277,26 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>4</v>
+      <c r="X83" s="3">
+        <v>0</v>
       </c>
       <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA83" s="3">
         <v>100</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6372,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6455,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6538,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6621,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,61 +6704,67 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-200</v>
       </c>
       <c r="Q89" s="3">
         <v>-400</v>
       </c>
       <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
-        <v>-100</v>
-      </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
@@ -6345,16 +6779,22 @@
         <v>-100</v>
       </c>
       <c r="Y89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6822,10 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6901,14 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6984,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,29 +7067,35 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -6643,22 +7103,22 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -6690,8 +7150,14 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7185,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7264,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7347,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7430,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,70 +7513,76 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>2400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
-      </c>
-      <c r="O100" s="3">
-        <v>400</v>
-      </c>
-      <c r="P100" s="3">
-        <v>200</v>
       </c>
       <c r="Q100" s="3">
         <v>400</v>
       </c>
       <c r="R100" s="3">
+        <v>200</v>
+      </c>
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
       <c r="T100" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="U100" s="3">
         <v>100</v>
       </c>
       <c r="V100" s="3">
+        <v>200</v>
+      </c>
+      <c r="W100" s="3">
         <v>100</v>
-      </c>
-      <c r="W100" s="3">
-        <v>0</v>
       </c>
       <c r="X100" s="3">
         <v>100</v>
@@ -7099,13 +7591,19 @@
         <v>0</v>
       </c>
       <c r="Z100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,50 +7679,56 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
-      </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
-      <c r="L102" s="3">
-        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>100</v>
       </c>
       <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -7244,18 +7748,24 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>100</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>
